--- a/excel2mysql/excels/game_service_option.xlsx
+++ b/excel2mysql/excels/game_service_option.xlsx
@@ -19,11 +19,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
   <si>
     <t>KindID</t>
   </si>
   <si>
+    <t>int(11)|PRI|</t>
+  </si>
+  <si>
     <t>名称号码</t>
   </si>
   <si>
@@ -36,6 +39,9 @@
     <t>SortID</t>
   </si>
   <si>
+    <t>int(11)||</t>
+  </si>
+  <si>
     <t>排列标识</t>
   </si>
   <si>
@@ -78,6 +84,9 @@
     <t>RoomName</t>
   </si>
   <si>
+    <t>varchar(255)||</t>
+  </si>
+  <si>
     <t>房间名称</t>
   </si>
   <si>
@@ -118,6 +127,9 @@
   </si>
   <si>
     <t>DynamicJoin</t>
+  </si>
+  <si>
+    <t>int(255)||</t>
   </si>
   <si>
     <t>是够允许游戏开始后加入 1是允许</t>
@@ -507,7 +519,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -518,61 +530,61 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="S1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="T1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
@@ -580,128 +592,128 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="N2" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="S2" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
         <v>28</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>500</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-      <c r="H3">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>100</v>
-      </c>
-      <c r="N3">
-        <v>900</v>
-      </c>
-      <c r="O3">
-        <v>900</v>
-      </c>
-      <c r="P3">
-        <v>999</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>10</v>
-      </c>
-      <c r="S3">
-        <v>10</v>
-      </c>
-      <c r="T3">
-        <v>600</v>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -719,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -752,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="S4">
         <v>10</v>
@@ -763,7 +775,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -781,16 +793,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -808,16 +820,16 @@
         <v>900</v>
       </c>
       <c r="P5">
-        <v>900</v>
+        <v>999</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S5">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="T5">
         <v>600</v>
@@ -825,7 +837,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -843,16 +855,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -876,10 +888,10 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="S6">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="T6">
         <v>600</v>
@@ -887,7 +899,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -905,16 +917,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -938,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S7">
         <v>10</v>
@@ -949,7 +961,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -967,16 +979,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1011,10 +1023,10 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>380</v>
+        <v>39</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>500</v>
@@ -1038,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1062,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="S9">
         <v>10</v>
@@ -1073,10 +1085,10 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>500</v>
@@ -1091,7 +1103,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -1100,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1135,7 +1147,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1162,7 +1174,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1197,7 +1209,7 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1215,7 +1227,7 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H12">
         <v>4</v>
@@ -1224,7 +1236,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1259,7 +1271,7 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -1286,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1321,7 +1333,7 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1348,7 +1360,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1383,7 +1395,7 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -1410,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1440,6 +1452,68 @@
         <v>10</v>
       </c>
       <c r="T15">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>395</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>500</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>100</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>100</v>
+      </c>
+      <c r="N16">
+        <v>900</v>
+      </c>
+      <c r="O16">
+        <v>900</v>
+      </c>
+      <c r="P16">
+        <v>900</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>20</v>
+      </c>
+      <c r="S16">
+        <v>10</v>
+      </c>
+      <c r="T16">
         <v>600</v>
       </c>
     </row>
